--- a/ResultadoEleicoesDistritos/COIMBRA_PENELA.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_PENELA.xlsx
@@ -597,61 +597,61 @@
         <v>1401</v>
       </c>
       <c r="H2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J2" t="n">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>65</v>
+      </c>
+      <c r="T2" t="n">
+        <v>93</v>
+      </c>
+      <c r="U2" t="n">
         <v>10</v>
       </c>
-      <c r="S2" t="n">
-        <v>68</v>
-      </c>
-      <c r="T2" t="n">
-        <v>99</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7</v>
-      </c>
       <c r="V2" t="n">
-        <v>905</v>
+        <v>938</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>5</v>
